--- a/data/reporting/ROLE_MAPPING_OUTPUT_OF_TOOL_FOR_SECURITY.xlsx
+++ b/data/reporting/ROLE_MAPPING_OUTPUT_OF_TOOL_FOR_SECURITY.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$2:$CG$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$2:$CH$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>AP Invoice Processor</t>
   </si>
@@ -798,13 +798,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH25"/>
+  <dimension ref="A1:CI25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,11 +821,12 @@
     <col min="13" max="36" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="48" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="85" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.5703125" customWidth="1"/>
+    <col min="50" max="50" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="86" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="13" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:87" s="13" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>82</v>
       </c>
@@ -973,116 +974,119 @@
       <c r="AW1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BB1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BC1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BF1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BH1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BI1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BK1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BL1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BM1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BN1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BO1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="BO1" s="10" t="s">
+      <c r="BP1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="BP1" s="10" t="s">
+      <c r="BQ1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="BQ1" s="10" t="s">
+      <c r="BR1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="BR1" s="10" t="s">
+      <c r="BS1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="BS1" s="10" t="s">
+      <c r="BT1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BT1" s="10" t="s">
+      <c r="BU1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="BU1" s="10" t="s">
+      <c r="BV1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BW1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="BW1" s="10" t="s">
+      <c r="BX1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BX1" s="10" t="s">
+      <c r="BY1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="BY1" s="10" t="s">
+      <c r="BZ1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="11" t="s">
+      <c r="CA1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="CA1" s="11" t="s">
+      <c r="CB1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" s="11" t="s">
+      <c r="CC1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="CC1" s="11" t="s">
+      <c r="CD1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="CD1" s="11" t="s">
+      <c r="CE1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="CE1" s="11" t="s">
+      <c r="CF1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CG1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="CG1" s="12" t="s">
+      <c r="CH1" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:87" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1169,8 +1173,9 @@
       <c r="CF2" s="1"/>
       <c r="CG2" s="1"/>
       <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1248,8 +1253,9 @@
       <c r="BW3" s="14"/>
       <c r="BX3" s="14"/>
       <c r="BY3" s="14"/>
+      <c r="BZ3" s="14"/>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1327,8 +1333,9 @@
       <c r="BW4" s="16"/>
       <c r="BX4" s="16"/>
       <c r="BY4" s="16"/>
+      <c r="BZ4" s="16"/>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1406,8 +1413,9 @@
       <c r="BW5" s="14"/>
       <c r="BX5" s="14"/>
       <c r="BY5" s="14"/>
+      <c r="BZ5" s="14"/>
     </row>
-    <row r="6" spans="1:86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1485,8 +1493,9 @@
       <c r="BW6" s="14"/>
       <c r="BX6" s="14"/>
       <c r="BY6" s="14"/>
+      <c r="BZ6" s="14"/>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1564,8 +1573,9 @@
       <c r="BW7" s="14"/>
       <c r="BX7" s="14"/>
       <c r="BY7" s="14"/>
+      <c r="BZ7" s="14"/>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1643,8 +1653,9 @@
       <c r="BW8" s="14"/>
       <c r="BX8" s="14"/>
       <c r="BY8" s="14"/>
+      <c r="BZ8" s="14"/>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1722,8 +1733,9 @@
       <c r="BW9" s="14"/>
       <c r="BX9" s="14"/>
       <c r="BY9" s="14"/>
+      <c r="BZ9" s="14"/>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1801,8 +1813,9 @@
       <c r="BW10" s="14"/>
       <c r="BX10" s="14"/>
       <c r="BY10" s="14"/>
+      <c r="BZ10" s="14"/>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1880,8 +1893,9 @@
       <c r="BW11" s="14"/>
       <c r="BX11" s="14"/>
       <c r="BY11" s="14"/>
+      <c r="BZ11" s="14"/>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -1959,8 +1973,9 @@
       <c r="BW12" s="14"/>
       <c r="BX12" s="14"/>
       <c r="BY12" s="14"/>
+      <c r="BZ12" s="14"/>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -2038,8 +2053,9 @@
       <c r="BW13" s="14"/>
       <c r="BX13" s="14"/>
       <c r="BY13" s="14"/>
+      <c r="BZ13" s="14"/>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -2117,8 +2133,9 @@
       <c r="BW14" s="14"/>
       <c r="BX14" s="14"/>
       <c r="BY14" s="14"/>
+      <c r="BZ14" s="14"/>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -2196,8 +2213,9 @@
       <c r="BW15" s="14"/>
       <c r="BX15" s="14"/>
       <c r="BY15" s="14"/>
+      <c r="BZ15" s="14"/>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -2275,8 +2293,9 @@
       <c r="BW16" s="14"/>
       <c r="BX16" s="14"/>
       <c r="BY16" s="14"/>
+      <c r="BZ16" s="14"/>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -2354,8 +2373,9 @@
       <c r="BW17" s="14"/>
       <c r="BX17" s="14"/>
       <c r="BY17" s="14"/>
+      <c r="BZ17" s="14"/>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2433,8 +2453,9 @@
       <c r="BW18" s="14"/>
       <c r="BX18" s="14"/>
       <c r="BY18" s="14"/>
+      <c r="BZ18" s="14"/>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2512,8 +2533,9 @@
       <c r="BW19" s="14"/>
       <c r="BX19" s="14"/>
       <c r="BY19" s="14"/>
+      <c r="BZ19" s="14"/>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -2591,8 +2613,9 @@
       <c r="BW20" s="14"/>
       <c r="BX20" s="14"/>
       <c r="BY20" s="14"/>
+      <c r="BZ20" s="14"/>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -2670,8 +2693,9 @@
       <c r="BW21" s="14"/>
       <c r="BX21" s="14"/>
       <c r="BY21" s="14"/>
+      <c r="BZ21" s="14"/>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -2749,8 +2773,9 @@
       <c r="BW22" s="14"/>
       <c r="BX22" s="14"/>
       <c r="BY22" s="14"/>
+      <c r="BZ22" s="14"/>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -2828,8 +2853,9 @@
       <c r="BW23" s="14"/>
       <c r="BX23" s="14"/>
       <c r="BY23" s="14"/>
+      <c r="BZ23" s="14"/>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2907,8 +2933,9 @@
       <c r="BW24" s="14"/>
       <c r="BX24" s="14"/>
       <c r="BY24" s="14"/>
+      <c r="BZ24" s="14"/>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -2986,9 +3013,10 @@
       <c r="BW25" s="14"/>
       <c r="BX25" s="14"/>
       <c r="BY25" s="14"/>
+      <c r="BZ25" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="M2:CG2"/>
+  <autoFilter ref="M2:CH2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/reporting/ROLE_MAPPING_OUTPUT_OF_TOOL_FOR_SECURITY.xlsx
+++ b/data/reporting/ROLE_MAPPING_OUTPUT_OF_TOOL_FOR_SECURITY.xlsx
@@ -120,9 +120,6 @@
     <t>Service Entry Sheet Creator</t>
   </si>
   <si>
-    <t>SRM Lead Requestor</t>
-  </si>
-  <si>
     <t>Stock Count Administrator</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>Purchasing Org</t>
+  </si>
+  <si>
+    <t>SRM Lead Requester</t>
   </si>
 </sst>
 </file>
@@ -790,7 +790,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,43 +814,43 @@
   <sheetData>
     <row r="1" spans="1:87" s="13" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>1</v>
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="W1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="Z1" s="7" t="s">
         <v>2</v>
@@ -895,16 +895,16 @@
         <v>28</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF1" s="8" t="s">
         <v>20</v>
@@ -916,13 +916,13 @@
         <v>9</v>
       </c>
       <c r="AI1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="AK1" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>16</v>
@@ -937,13 +937,13 @@
         <v>5</v>
       </c>
       <c r="AP1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="AS1" s="8" t="s">
         <v>15</v>
@@ -958,58 +958,58 @@
         <v>24</v>
       </c>
       <c r="AW1" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AY1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BE1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="BA1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BI1" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="BC1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="BD1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="BH1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI1" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="BJ1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BK1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BM1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN1" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="BM1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="BN1" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="BO1" s="10" t="s">
         <v>11</v>
@@ -1024,46 +1024,46 @@
         <v>10</v>
       </c>
       <c r="BS1" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BT1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="BU1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BW1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="BW1" s="10" t="s">
+      <c r="BX1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="BY1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ1" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="BX1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="BY1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="BZ1" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="CA1" s="11" t="s">
         <v>22</v>
       </c>
       <c r="CB1" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CC1" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CD1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="CE1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="CF1" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="CF1" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="CG1" s="7" t="s">
         <v>18</v>

--- a/data/reporting/ROLE_MAPPING_OUTPUT_OF_TOOL_FOR_SECURITY.xlsx
+++ b/data/reporting/ROLE_MAPPING_OUTPUT_OF_TOOL_FOR_SECURITY.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>AP Invoice Processor</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Sourcing Coordinator</t>
   </si>
   <si>
-    <t>T&amp;C Supressor</t>
-  </si>
-  <si>
     <t>AVL Suppressor</t>
   </si>
   <si>
@@ -271,6 +268,12 @@
   </si>
   <si>
     <t>SRM Lead Requester</t>
+  </si>
+  <si>
+    <t>T&amp;C Suppressor</t>
+  </si>
+  <si>
+    <t>Inventory Optimization Analyst</t>
   </si>
 </sst>
 </file>
@@ -786,11 +789,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane xSplit="12" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +817,7 @@
   <sheetData>
     <row r="1" spans="1:87" s="13" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>50</v>
@@ -829,7 +832,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>47</v>
@@ -850,7 +853,7 @@
         <v>55</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>1</v>
@@ -883,10 +886,10 @@
         <v>56</v>
       </c>
       <c r="X1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Z1" s="7" t="s">
         <v>2</v>
@@ -895,13 +898,13 @@
         <v>28</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE1" s="8" t="s">
         <v>38</v>
@@ -922,7 +925,7 @@
         <v>34</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>16</v>
@@ -937,13 +940,13 @@
         <v>5</v>
       </c>
       <c r="AP1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="AS1" s="8" t="s">
         <v>15</v>
@@ -958,10 +961,10 @@
         <v>24</v>
       </c>
       <c r="AW1" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AY1" s="9" t="s">
         <v>45</v>
@@ -976,19 +979,19 @@
         <v>39</v>
       </c>
       <c r="BC1" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BD1" s="9" t="s">
         <v>46</v>
       </c>
       <c r="BE1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="BG1" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="BH1" s="9" t="s">
         <v>44</v>
@@ -1000,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="BK1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL1" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="BL1" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="BM1" s="9" t="s">
         <v>42</v>
       </c>
       <c r="BN1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BO1" s="10" t="s">
         <v>11</v>
@@ -1024,19 +1027,19 @@
         <v>10</v>
       </c>
       <c r="BS1" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BT1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="BU1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BW1" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="BW1" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="BX1" s="10" t="s">
         <v>37</v>
@@ -1045,13 +1048,13 @@
         <v>36</v>
       </c>
       <c r="BZ1" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CA1" s="11" t="s">
         <v>22</v>
       </c>
       <c r="CB1" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CC1" s="11" t="s">
         <v>35</v>
@@ -1060,10 +1063,10 @@
         <v>6</v>
       </c>
       <c r="CE1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="CF1" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="CF1" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="CG1" s="7" t="s">
         <v>18</v>

--- a/data/reporting/ROLE_MAPPING_OUTPUT_OF_TOOL_FOR_SECURITY.xlsx
+++ b/data/reporting/ROLE_MAPPING_OUTPUT_OF_TOOL_FOR_SECURITY.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
-    <t>AP Invoice Processor</t>
-  </si>
-  <si>
     <t>Backbone Reviewer/Approver</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>WM Mobile Technician</t>
   </si>
   <si>
-    <t>WM Microsoft Project (MSP)</t>
-  </si>
-  <si>
     <t>WM Occasional Work Request Creator</t>
   </si>
   <si>
@@ -274,6 +268,12 @@
   </si>
   <si>
     <t>Inventory Optimization Analyst</t>
+  </si>
+  <si>
+    <t>WM Microsoft Project</t>
+  </si>
+  <si>
+    <t>AP Invoice Processor  (GFT Job Role)</t>
   </si>
 </sst>
 </file>
@@ -790,10 +790,10 @@
   <dimension ref="A1:CI6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO6" sqref="AO6"/>
+      <selection pane="bottomRight" activeCell="BJ1" sqref="BJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,262 +817,262 @@
   <sheetData>
     <row r="1" spans="1:87" s="13" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="N1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="Y1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="6" t="s">
+      <c r="AY1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="BZ1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="CA1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="7" t="s">
+      <c r="CB1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="CC1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="CD1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="CG1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="CH1" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX1" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BB1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="BE1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="BG1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="BI1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="BJ1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="BM1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="BO1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="BP1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BQ1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="BR1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="BS1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="BU1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="BY1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="CB1" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="CC1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="CD1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="CE1" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="CF1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="CG1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="CH1" s="12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:87" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">

--- a/data/reporting/ROLE_MAPPING_OUTPUT_OF_TOOL_FOR_SECURITY.xlsx
+++ b/data/reporting/ROLE_MAPPING_OUTPUT_OF_TOOL_FOR_SECURITY.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$2:$CH$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$2:$CU$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>Backbone Reviewer/Approver</t>
   </si>
@@ -274,13 +274,52 @@
   </si>
   <si>
     <t>AP Invoice Processor  (GFT Job Role)</t>
+  </si>
+  <si>
+    <t>  Standard Desktop Confirmation Requester</t>
+  </si>
+  <si>
+    <t> Central Desktop Confirmation Requester</t>
+  </si>
+  <si>
+    <t>Strategic Materials Planner</t>
+  </si>
+  <si>
+    <t> Demand Planning MRP Specialist</t>
+  </si>
+  <si>
+    <t>Third Party Inventory Administrator</t>
+  </si>
+  <si>
+    <t>MDM - Local Data Steward</t>
+  </si>
+  <si>
+    <t>  VMI Administrator</t>
+  </si>
+  <si>
+    <t>Vendor Data Requestor (Egypt only)</t>
+  </si>
+  <si>
+    <t>MDM - Display</t>
+  </si>
+  <si>
+    <t>MDM - Global Data Steward</t>
+  </si>
+  <si>
+    <t>GWO Data Maintainer</t>
+  </si>
+  <si>
+    <t>  GWO Data Display</t>
+  </si>
+  <si>
+    <t>  Regional Maximo Labor Data Steward</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,8 +360,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF500050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +420,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,11 +515,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,6 +547,19 @@
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,13 +861,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CI6"/>
+  <dimension ref="A1:CU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ1" sqref="BJ1"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,9 +878,9 @@
     <col min="4" max="4" width="3.28515625" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="12" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="12" width="5.140625" hidden="1" customWidth="1"/>
     <col min="13" max="36" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="48" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -815,359 +889,411 @@
     <col min="51" max="86" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="13" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:99" s="12" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AN1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AO1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AR1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AT1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AU1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AW1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AX1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BE1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BF1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BG1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BH1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BI1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BK1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BL1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BM1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BN1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="10" t="s">
+      <c r="BO1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="BP1" s="10" t="s">
+      <c r="BP1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="BQ1" s="10" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BR1" s="10" t="s">
+      <c r="BR1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="BS1" s="10" t="s">
+      <c r="BS1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="10" t="s">
+      <c r="BT1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="BU1" s="10" t="s">
+      <c r="BU1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BV1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="BW1" s="10" t="s">
+      <c r="BW1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BX1" s="10" t="s">
+      <c r="BX1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="BY1" s="10" t="s">
+      <c r="BY1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="BZ1" s="10" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="CA1" s="11" t="s">
+      <c r="CA1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="CB1" s="11" t="s">
+      <c r="CB1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="CC1" s="11" t="s">
+      <c r="CC1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="CD1" s="11" t="s">
+      <c r="CD1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="CE1" s="11" t="s">
+      <c r="CE1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="CF1" s="11" t="s">
+      <c r="CF1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CG1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="CH1" s="12" t="s">
+      <c r="CH1" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="CI1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="CN1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="CP1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CQ1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="CS1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="13" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="2" spans="1:87" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
-      <c r="BS2" s="1"/>
-      <c r="BT2" s="1"/>
-      <c r="BU2" s="1"/>
-      <c r="BV2" s="1"/>
-      <c r="BW2" s="1"/>
-      <c r="BX2" s="1"/>
-      <c r="BY2" s="1"/>
-      <c r="BZ2" s="1"/>
-      <c r="CA2" s="1"/>
-      <c r="CB2" s="1"/>
-      <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
-      <c r="CF2" s="1"/>
-      <c r="CG2" s="1"/>
-      <c r="CH2" s="1"/>
-      <c r="CI2" s="1"/>
+    <row r="2" spans="1:99" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="16"/>
+      <c r="BO2" s="16"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="16"/>
+      <c r="BS2" s="16"/>
+      <c r="BT2" s="16"/>
+      <c r="BU2" s="16"/>
+      <c r="BV2" s="16"/>
+      <c r="BW2" s="16"/>
+      <c r="BX2" s="16"/>
+      <c r="BY2" s="16"/>
+      <c r="BZ2" s="16"/>
+      <c r="CA2" s="16"/>
+      <c r="CB2" s="16"/>
+      <c r="CC2" s="16"/>
+      <c r="CD2" s="16"/>
+      <c r="CE2" s="16"/>
+      <c r="CF2" s="16"/>
+      <c r="CG2" s="16"/>
+      <c r="CH2" s="16"/>
+      <c r="CI2" s="16"/>
+      <c r="CJ2" s="16"/>
+      <c r="CK2" s="16"/>
+      <c r="CL2" s="16"/>
+      <c r="CM2" s="16"/>
+      <c r="CN2" s="17"/>
+      <c r="CO2" s="17"/>
+      <c r="CP2" s="17"/>
+      <c r="CQ2" s="17"/>
+      <c r="CR2" s="17"/>
+      <c r="CS2" s="17"/>
+      <c r="CT2" s="17"/>
+      <c r="CU2" s="17"/>
     </row>
-    <row r="6" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="M2:CH2"/>
+  <autoFilter ref="M2:CU2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/reporting/ROLE_MAPPING_OUTPUT_OF_TOOL_FOR_SECURITY.xlsx
+++ b/data/reporting/ROLE_MAPPING_OUTPUT_OF_TOOL_FOR_SECURITY.xlsx
@@ -1,18 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="6180" windowWidth="15600" windowHeight="5970"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Security Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$2:$CU$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Security Report'!$A$2:$CU$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -442,35 +440,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -481,85 +455,60 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,22 +812,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" hidden="1" customWidth="1"/>
     <col min="9" max="12" width="5.140625" hidden="1" customWidth="1"/>
     <col min="13" max="36" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -889,302 +838,302 @@
     <col min="51" max="86" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="12" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:99" s="16" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AM1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AN1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AP1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AR1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AS1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AT1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AU1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AV1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AW1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AX1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AY1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BA1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BB1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BC1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BD1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BE1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BF1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BG1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BH1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BI1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BK1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BL1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BM1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BN1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BO1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BP1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BQ1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BR1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BS1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BT1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BU1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BV1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BW1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BX1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BY1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="BZ1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="CA1" s="10" t="s">
+      <c r="CA1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CB1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="CC1" s="10" t="s">
+      <c r="CC1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CD1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="CE1" s="10" t="s">
+      <c r="CE1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="CF1" s="10" t="s">
+      <c r="CF1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CG1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="CH1" s="11" t="s">
+      <c r="CH1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="CI1" s="14" t="s">
+      <c r="CI1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" s="15" t="s">
+      <c r="CJ1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" s="13" t="s">
+      <c r="CK1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" s="13" t="s">
+      <c r="CL1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" s="13" t="s">
+      <c r="CM1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="CN1" s="13" t="s">
+      <c r="CN1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="CO1" s="13" t="s">
+      <c r="CO1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="CP1" s="13" t="s">
+      <c r="CP1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="CQ1" s="13" t="s">
+      <c r="CQ1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" s="13" t="s">
+      <c r="CR1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="CS1" s="13" t="s">
+      <c r="CS1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" s="13" t="s">
+      <c r="CT1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" s="13" t="s">
+      <c r="CU1" s="15" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1201,122 +1150,98 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="16"/>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="16"/>
-      <c r="BG2" s="16"/>
-      <c r="BH2" s="16"/>
-      <c r="BI2" s="16"/>
-      <c r="BJ2" s="16"/>
-      <c r="BK2" s="16"/>
-      <c r="BL2" s="16"/>
-      <c r="BM2" s="16"/>
-      <c r="BN2" s="16"/>
-      <c r="BO2" s="16"/>
-      <c r="BP2" s="16"/>
-      <c r="BQ2" s="16"/>
-      <c r="BR2" s="16"/>
-      <c r="BS2" s="16"/>
-      <c r="BT2" s="16"/>
-      <c r="BU2" s="16"/>
-      <c r="BV2" s="16"/>
-      <c r="BW2" s="16"/>
-      <c r="BX2" s="16"/>
-      <c r="BY2" s="16"/>
-      <c r="BZ2" s="16"/>
-      <c r="CA2" s="16"/>
-      <c r="CB2" s="16"/>
-      <c r="CC2" s="16"/>
-      <c r="CD2" s="16"/>
-      <c r="CE2" s="16"/>
-      <c r="CF2" s="16"/>
-      <c r="CG2" s="16"/>
-      <c r="CH2" s="16"/>
-      <c r="CI2" s="16"/>
-      <c r="CJ2" s="16"/>
-      <c r="CK2" s="16"/>
-      <c r="CL2" s="16"/>
-      <c r="CM2" s="16"/>
-      <c r="CN2" s="17"/>
-      <c r="CO2" s="17"/>
-      <c r="CP2" s="17"/>
-      <c r="CQ2" s="17"/>
-      <c r="CR2" s="17"/>
-      <c r="CS2" s="17"/>
-      <c r="CT2" s="17"/>
-      <c r="CU2" s="17"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+      <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3"/>
+      <c r="BX2" s="3"/>
+      <c r="BY2" s="3"/>
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="3"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="3"/>
+      <c r="CI2" s="3"/>
+      <c r="CJ2" s="3"/>
+      <c r="CK2" s="3"/>
+      <c r="CL2" s="3"/>
+      <c r="CM2" s="3"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
     </row>
     <row r="6" spans="1:99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="M2:CU2"/>
+  <autoFilter ref="A2:CU2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/reporting/ROLE_MAPPING_OUTPUT_OF_TOOL_FOR_SECURITY.xlsx
+++ b/data/reporting/ROLE_MAPPING_OUTPUT_OF_TOOL_FOR_SECURITY.xlsx
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Security Report'!$A$4:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Security Report'!$A$4:$H$4</definedName>
     <definedName name="Directors">[1]Definitions!$B$75:$C$96</definedName>
     <definedName name="HML">[2]Data!$B$2:$B$4</definedName>
     <definedName name="Org">[2]Data!$C$2:$C$22</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Role Mapping New Deployment Template</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Performace Unit</t>
+  </si>
+  <si>
+    <t>Mapping type</t>
   </si>
 </sst>
 </file>
@@ -79,6 +82,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -254,9 +258,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -273,9 +274,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -291,6 +289,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -990,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
@@ -1001,68 +1005,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="3" width="9.140625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="7"/>
-    <col min="6" max="7" width="9.140625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="3" width="9.140625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="6"/>
+    <col min="6" max="8" width="9.140625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="6" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="6" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+    <row r="2" spans="1:8" s="9" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="162.75" customHeight="1" thickBot="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" s="14" customFormat="1" ht="162.75" customHeight="1" thickBot="1">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="H3" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:G4"/>
+  <autoFilter ref="A4:H4"/>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
